--- a/Testdata/TC_Unit Manipulation_12.xlsx
+++ b/Testdata/TC_Unit Manipulation_12.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>pTUAAB+LCAAAAAAAAAPtW1tvG8cV/isLPSVAqdklRUlUxhtQpKQQ5UUQqdjKizHaHUpbLXfZvUjiW/pQBEgvQNEkQHpFHooGAZr6IS1cu2j/S2DJ7lP/Qs/M7GV2ubS4soq2qAwD3jmXuZw5c853hmP87uXEVs6p51uu82BFW1VXFOoYrmk5Jw9WwmBc0dZX3tXxzqVB7X3ikQkNQFgBLcffuvStByunQTDdQuji4mL1orbqeieoqqoaetTrDo1TOiEVy/ED4hh0JdEyb9Za0XHLnPRoQEwSEKH5YKUz7Ky2qGW0gdYjDjmh3up26FsO9f0dJ7ACi/pM06MkoK12732xML26ur6qYTRHTyW3Q8s2hVxGUtAjORiWjqwJ1atqVa1o1YpaG2nqVq2xVd9crVXVD2LFRBB3iR8MqXduGZwwDMhkytW1qlrT1FqjvolRoRD0lRpAxwPbPKDnlk/NFrVtv5RFULSBTSOAVZczpoqRpBt1dPsp7HlkejqyApuWVd91PWqAoW41dp9eDLzIfqNpF7ijU8sLZm0yK93XoU+9wZRZo5yqjtuuEzRt6gWHU9hUasKeA0MPvJBitICZKrUt34BvywmpqY+J7ctKGSZ+6Hpn/pQYtA8HFrE+LhzbJSZ4VmD5gWWkg84x8L7nTqFHGHzbtc1d6DUSLmAkPXccMDEbdtt1z9LZFTEx9wHuDbCnExLE4nN0PDx1LwaOPRuGx77hWcfUbG/H0oU8zE5epN0K/cCdwCxSEhY0iTKDP3DS8mTcpoY1Ifa+DUb09Rr0kiHgZhi4YytouXY4cfx4TjkqfggrGtHLZIVJGw9gcx1mdNfpOLG8MHMhK6tw4F4kY84zuBEkctM34u2eZ+SF20CLt2+ew3eErXLXsiERyHshUbNeMTylNCh0CcHBLObtstSib8/YmBilFAyeCd4NVJ0liAr/O1LVLf4XRk7YeMcxIzmNB+eaLBczcT+cDI7hBJ/zNeka8HIkDKuwt23inAH1oRWc9pvx7As4WKx5ofw8D8NZndpkxsmJXWQa7jiGHZpUhICOM+ZOyeYmtnEhG8+RunCqdUyc2Wg2hZDrW1sBfDxYgSS85QcepPkV3XBDJ/BmLFZgFInepOOHxw4fgNhL64w9+v0Q0MVsN3SMlmsuP5oprHPoWMHyM3RDTwTA5VW49VgsDP02ZVGFh/ml9Y0ya/K9UuITh05cxzKWtzYYmc3evMVC/PhULa1BxflaWt6GTC4SHTvrS6t5AA0htZUapun7rmFxZ42OhynpowVHpk3HJLQBlgWQVE+SaJsn46Z/lpeRSfjQs+OYpzPQ6wPqNczJqgFwgSG7VcOdMAICsPlwiJEszzCPQXecky5xTkJAFUlcydOTiMsy4sgjjs+Wk4CIXPAtFsJxnBLgRhfBaxByRxDBywUuRjk5PKKTqesRuweGsXYjt4sQEoCPHglOoxZkM5sasZFRqppoZWcWT/wmMZ6WxDLYgY/CZI7IhdhaBL5OZVIaZqvswbG0W8S2jj0RVePkXcSDDUvhYBx/2eJKQsN4D6DGgnz7XTpjwDttRHTuslrMEA7MAqk+PFjbrNbVeh2wDGtjvuI99zxQAPVSQIVKRRmRS+UdpeOY1rllhsSGT3A+WJkwT5SCSmnKOng3ju98Ck2YZ5aSFQBkcWJB+pgXTDipgn5EiWfPJEGxxK5rgNz1J3+/evar60/+fPXD31VefvnTq4+/+Odff/Hi6Vcvnj0TVLFGIY1H5NimfEaj7c1NtbYGDpaQMLMq4ijYDI2A046OOPhN2jgq1nijtdNp7XW3eSBJiLG6yCWI1YEzN0ybQ7EKPhDfSxS7gBDRR3FgitoZrpSbdFaXndOstMxfpChs8fL5718+/8NC7chgKcjSGo1NXvjejMG0ObkEg3UzwZ8Jr1XUeqValYRzMvhARP7ETh1Th/q5oWobqpYEcTPx4iKhPCvqaUROUE5PkFoCFyUuILdjJvf8EfWDhC3OgtSIfPRPP3r1x08zUpF1I0q2F5gcxy9sMBQ3eNf9g5EyHBwetHaU0c6Q+UnKk+RE568RjkZPDlTGqRwHTvl3FMjqkMWUFSh+VhR3rFBinCozOIrSQcw4WxFVDHTLLvOz3PPccCp2RFJIqQWSSTgp1CgINpzH7TkXdVJWgbiY69VfvilSiBbSTpGsftDbViZO4pechjMcQZL40an9/G8vnn7EgtuTn109/UGmh2ic5AYA/BxOk9xM3B5CXpRochT8cMiNeaY+lhJLRGQV1L5rOYGva2u8eIpaGFQ11hv/F3cmkOt4x9xeQM9R8HvE37kMooOt9zHKEmCeUwJp1k3LzIQgYnhq13/8+jfXv/zm+rMnrz766urjL69+/NnL57999fUX4tRdf/rk+idfR1E+nwj4XFjxKtCfwq9CDIWdRoUlbeXbD3+uOG6gANZQQh6Rvv3wc6kzNlGOStKeAcslE8lOYU5UVmZ6ijSVZA4ZvURFZP4WS2G1RCJKYu7UMtJBPqiwrti544y3OqNK6FPFBRj1NqwkK5wqL6sXqYiUur+hVrVqxBWzYUs4Jr5k+j3bPQYYETP4XUNOJKP1eoVUlo+31x1sN7upiJjEwDOpx9xQfOCOH6PJ2L0kCnAB5Rmhza6E5sTmWTj+kkIXiu5Wxk2ThTxdLbq/yEjgVuh5AgU50Z38MJwC8o1v4Bbz+a2kBHb7ApjK8Ddtd9pZPrQlLiS/LJsROJ+Ho4glQlPHZ9c4Arv2mWnSJvAyN5lgjujaXaArQJLUQyzW7Hie6xUGnJQTi/UANkMUQanFExnEhhQQ20z3KibEQe4eat9D7XuofQ+176H2/xvUDhZC7WAx1C5QLI+wtcUIW3u8QTe1RlWllUa1Vq2s1dfHlUZjw6yQNXJcr9Yam0aD/gfAd7xZBT8yLJzD8lnpNvv+OlcsqJruOpK+cc5+fTC9IcjdXLOh1+zYfSV1X0nddSWlJZVUjMR9cdef+wUAgpGpH/Y7o8e9Zr+zf9htjjoDViswBCElNCFy2B119rudnYO3Rp5l28B4RxHVTsCNpUzYjwxT22KvkJgvWY4SnFIlhDOvOLCCt9lvNFKaTB8tidkl7QjOQxg4oUEv6TVG9e8TO4Q9gImKLw5W9dagPxw1+5Ddo1+Pcl0WjUCmU5snjkWD7Da7w51y4yB5WQLW5osTiZrsUBoxm54VnEIHljGYUvFbhg+hdU4uUWVFYKqkFGnxOjFfZkdhyhUK9LZlFxJFCMrEYZRLOfl2HBFlOpKqGSQVKKioHEGZ+gO9ca2BFtYIiznxTNOEVXiRUJDPCuUWVQaFwjdXBnk4zynLg32USXxoHsynJLQQp6M5MI6K4fEC8pxK4v6FxCKvSkBLITEeQAKRSGAWNA850d1c3iIZp6lvBBWXRw9IIqD5bJ4loUz6RflUKxOQlBdRQRbM0VA2jaEoKqH/tUu/aOz/5ls/dJt7PnR313lSYmlb4/ERQMtH6ZuqmCBmnPbCGiKnzoEVJKEZyTeih1d36yx3iHmKer+/fi57/bx8Nf5vuZlG6fORFDi1qQ04r+wj5Vi7557fWhfcoqxqxx/YZmTnci9gErOkHchPxpkPlZ1M0/MAeLA3pqXfeHct56xTbvU6aWzWa2TNJBv1tXWtvtmoa6qprdc3NXW9OobKU3TKigTWxQTgIXtOVG4QjYUtWT19+nVAnJOSvQkDc0X2PAosxc9qVCgnbbxreX7wiGGD6EtQjhLKkcCTj/SqAI2PRPtIr9UFAQSQPBjKzDoOPYH43wWu3bUmVsknVGocn7KdgBtMpwIelt3QVrvXp5cBRlIPACWOvweoRbw5LNObOFVQFyX6cV/D8Lh0dyhW3gc+c6zbae+YgDpvr83f6lv2G0yAY83bdtFxfOvkNCi7r5q6RjWI85U62RxX1jbW1irHdAyZ0azWx2NKjI06Q8Fx55A4LHpRchCWbiw/JHZ5PZT7z1b6vwCZ5G3jpTUAAA==</t>
+          <t>PzYAAB+LCAAAAAAAAAPtW1lz2zgS/issP2UeZJCSYklehFM67CxndbgseZLsSwoiIQlrHloetvXvtwHwACkqER3P7sM65aoIfQFoAN1fQxD+/cVztScaRizwP10Yl/qFRn07cJi//XSRxJuWcXXxu4lvXmzq3pGQeDQGYQ20/Oj6JWKfLnZxvL9G6Pn5+fK5cxmEW9TWdQN9nU2X9o56pMX8KCa+TS9yLefnWhcmHjvejMbEITGRmp8urKV1OabMngBtRnyypeHlKImYT6Poxo9ZzGjENUNKYjqezP6UEzPbl1eXBkZH9EJylDDXkXIlSUlP5aBbumIeNdt6W2/pvZbRWem9645+rbcvjd7gn5liLoinJIqXNHxitiAsY+LthbreMzp6r6PrbYxqhcBW4QATL1znnj6xiDpj6rpRI4+gdAGHdgyzbuZMHSNFNzX0+iF8Dsl+t2KxS5uq3wYhtcFRr+p7Tp8XYeq/1X4K3NWOhfFhQg6NbT1ENFzsuTeaqZp4Evjx0KVh/LCHRaUOrDkwzDhMKEYnmIXShEU2fGZ+Qh1zQ9xIVSox8ZcgfIz2xKZzOLCI23j23YA4sLNiFsXMLjo9YuC7MNiDReh8FLjOLVhNhWsYuWXLBxfzbkdB8FiMro6JxR4QuwHW1CNxJn5Ex8td8Lzw3cMyWUd2yNbUmYwy6Voe5icv1R4nURx4MIqChCVNocxm6AD/4LBVOXhCbeYR984FP0ZmBwyVCHiYxMGGxePATTw/yoZVoeIvMKkVfcknmbfxAtbX534PfMvP5KWna1llhfvgOe/zmCH8oJCHkZ2t+DGjKjwBWraCxxyxKHyWt8yFXKAuh0Itb4zljtK4dldIDuZh75ZnF3N04H1iVFAwbE7Y4EA1eY5oib+VDkGX/0HPORvf+E4qZ+gto93qqHIZE88Tb7GGQ/wk5mQawKuQMMzCHbnEfwTqFxbv5sNs9DUcLOd8Uv6Yh+G47l1yEOTcLyoNW77tJg6VUcDyN2JT8rHJZTzJxkekKRxsExP/sDrsIepG7DqGD58uIA9fR3EImf7CtIPEj8MDDxcYpaI/04mStS86IO7ZOpuQ/jsBgHG4TXx7HDjn9+ZI7zz4LD5/hEESyhh4vorwHg+HSTShPLCISH+2vt1kTlHYSNzzqRf4zD7f2+BkPnrnFROJslN1tgaV5+tseReSucx1/KyfrRYCOoTs1qibYRQFNhObNT0ejqKPThyZCd2QxAVkFkNe3ebRtkrGw+ixKqOS8EPoZjHP5Lg3AuBrO96lDYiBg7tLO/A4AQHe/LLESJXnsMemN/52SvxtAsAijytVeh5xeVJchcSP+HRyHFEJvvVCOItTEt+YMngtErERZPAKgItRRQ6vqLcPQuLOwDHsNt12KUgC/DEj8S5tQTZzqZ05GRWquVZ5ZNnAfyYm0pKcBj/waZisEIUQn4uE2IVMQcN8ljM4lu6YuGwdyqiaJe86HixYgQiz+Msn1xAdZmsAZRbk23/QA8feRSOliy1rZAy5gXkgNZf33X6v3+1APSHaWMz4w2T8G+A2JxFOu9amDOLvhlFHm0OIA39qn0l0rc1mo9UDpEHhpDQRvUJf1cS3WawXw5nBli0RynwAGVsGmeRILmcU8uYMoOfOPSiScrbTwAbBD3Dygr12z1wWybE/QmDg49SGLvG0MWFhacZSDa/I2qViaKtRv98f9GDT5STMPY0EOOa+EDRrMhegOCfgtIgTjfGNNb67n4nokhMzfZlgEK8PD0FSNJdyPqInscAo2xdSxBxn0Sptl7hKwjLVgqCso0qdUpcuURx50kTqvBJGuzoTo7U5RtNrMdq0lBzSghuMDhThigy+l5khd5kFBf3HrtGWRXZOy/Z3nVCVlVpakS2q6EnSWOKmdDvwk1e0M6Y4DZbvBHDeGcll5CFRGtKT9YKpl1NKjRCMVIAd3jPKGqKLCYO6OYbQGVPtM/UpP7PBRlswVyO+w48F+KYQV1Rlp1z/Uehrf0CKF/oz5h/Io+YQXxyrUeIx1Ug62vx0qjvu+OyW9mMdVZr7oWK1x89hkOyP4k5BrZGsjUDH3Iqm8Nnx0Apejbwc7CiBHEr8OqV0NpMC8pqzuQbxSot3+R4VZFxlSqoiIm39kcREyNyzdVIykfaV3xjApoejpTbzMwCxMM1KFQr+shRefdS/K1koJfJy6y5gfhyZ/a6otNIWBlWDWxP/Y8uDxCgMC78BvULBfyfRzUucnnITYm+ZAOPcE9imQVGT5gQZ3AvfQpO6mjW5vB+NdKN7rZ3IE1opmaQJoZozxOjEpyOLP8qa2gc1RqvG+VSEZtFTNj7tBk7wlp+2qoSqYwqpgzKGkkIuK4HDGLJdv5dLpPku2DO7sL4UMSDvvcItpLOelyLmKIKpjMyvd/2rQcdIubI/Do7WJKI1kRCmQT2WeFomI+4lKtIlA2frFmoyhM8ni/nN0hoWUnJ0ixACH9+T8gO2ogyHZntNoQAX8KEN5zumx2LHLJx9UgIaSm9lNkOH38Wbet3NR0kCj5MwlKjJTy/0l8keMHN+8XJaQNxpKjh5LjGtipyLtjUp86GtcCEvltmcIPgiNKUsGaasiN8ASdg7574pmsAr3YOCP9JLewnCnhisA+KR5yYMg7A2/BScTGwGiBtiCipcnssg3qVE506xWBkhC3nvKP0dpb+j9HeU/o7S31F6DUo3dPFPonG/DqpXJf4LeN04jdeN73a/3V9vur1Wp28MWt32YNAatDukZV9tiGN8bOsDu/8/gPLZQtZ8v3FyDGdnsldtiR9t0/oi7K2D7Rsl/B9H3XOi4c/rQfSD9Xuv0t6rtL+0SjPyKi0D+ZH8BqLyvQTEKcd8mFur77Ph3Lp7mA5X1oKXIRx8KNlOijxMV9bd1Lq5/7AKmesC42+aLKRiLfDdg+bxrz72LuPPo/wg1pgPsYBqCcQCzYdJ/Ma/OVJyaPGaSo4ub6eVAoSHLY1nudWsYPiTuAksDgxUfhKY1xwv5svVcL6C1ZLfaVVM1vVA9ntX5JRTndwOp8ubZv0gdVoSHFfrHoWar1ARTIchi3dggNmLPZXfsAD0OZbLVXl9WShpdVqiBK2W8GnMCqQCfW1Fh2RRg0rxGVWyUbWdhUeVjpTqCCl1DqqralCpikG/XLGgkzXGaU420iKR1V5S1OS5WrlTRUWt8M+LimolICjn1wmolArRcQlQkNBJVI+OcDqqx84nyEcq+favJdbtqhzP1BKzDhR8iSScQcegFL3NLTFSIZz+SyjyfCiBFAI6TtxlEiplXlTNsioBKQkT1aTHCg2VMxlKoxJ6v1B88wtF9JorRPR2N4VKYpmwzeYbIOCvxUuvjCBHXFjhDZlTj8AKUtCMsjfS52Bvu1neEPPUWf//2olvcrV9fqX+l9x6o+JVS4GcJtQFoNf0+XSmPQueXq0L+6KpqhUtXCf1c7OHOblbCgPqY3a+h5oOZhiGgDz409fGr8+nzH+0ms3e7DmDrqMbmyvD6PcGvQEZ6GRgQG3Xc3SygblJo7xK4CY8wIf8lVOzTgwet1T14kXaPfG3Da1JBwtF/moLPCWvSUGJv9jK2viWhVH8lYOD9JOkfMsp3ySg/Gqmv7P4KtvfzP5HSQABpHaGSqPOYk8sf/cQuFPmsYYvu/QsPpWNwDbY7yU+bLqg48lsTl9ijBQLgCXW/wLYIp9CNrEmTxUURrl+ZmuZrBubQ5nyHfD5xnqd9o0DsPP12uJXBMz9hQEIsPlaE5Yfse0ubrquxtXa6LcHTuuKdmmr273qtwYf105rMCCdPr2yu7be52+/U+OQOBh9btgJTzcsSojbXA9VfgZm/gcxmxpdPzYAAA==</t>
         </r>
       </text>
     </comment>
@@ -39,12 +39,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +63,23 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,20 +113,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,34 +442,34 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Subnational</t>
         </is>
@@ -454,105 +478,105 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>RMB mn</t>
+          <t>MN BTU th</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>RMB tn</t>
+          <t>1000000 BTU tn</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Series ID</t>
         </is>
       </c>
-      <c r="B8" s="3">
-        <v>310901701</v>
-      </c>
-      <c r="C8" s="3">
-        <v>310901701</v>
+      <c r="B8" s="5">
+        <v>254123002</v>
+      </c>
+      <c r="C8" s="5">
+        <v>254123002</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>SR Code</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Mnemonic</t>
         </is>
@@ -561,7 +585,7 @@
       <c r="C10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Function Description</t>
         </is>
@@ -574,300 +598,850 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>First Obs. Date</t>
         </is>
       </c>
-      <c r="B12" s="4">
-        <v>36130</v>
-      </c>
-      <c r="C12" s="4">
-        <v>36130</v>
+      <c r="B12" s="6">
+        <v>38718</v>
+      </c>
+      <c r="C12" s="6">
+        <v>38718</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Last Obs. Date</t>
         </is>
       </c>
-      <c r="B13" s="4">
-        <v>40878</v>
-      </c>
-      <c r="C13" s="4">
-        <v>40878</v>
+      <c r="B13" s="6">
+        <v>41244</v>
+      </c>
+      <c r="C13" s="6">
+        <v>41244</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Last Update Time</t>
         </is>
       </c>
-      <c r="B14" s="5">
-        <v>41781</v>
-      </c>
-      <c r="C14" s="5">
-        <v>41781</v>
+      <c r="B14" s="7">
+        <v>43839</v>
+      </c>
+      <c r="C14" s="7">
+        <v>43839</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Series remarks</t>
         </is>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>Suggestions</t>
         </is>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
       <c r="B17" s="2">
-        <v>1231.927</v>
+        <v>93374.63980350002</v>
       </c>
       <c r="C17" s="2">
-        <v>0.001231927</v>
+        <v>9.337463980349998e-05</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>Variance</t>
         </is>
       </c>
       <c r="B18" s="2">
-        <v>196242.7157566667</v>
+        <v>67588679.72409233</v>
       </c>
       <c r="C18" s="2">
-        <v>1.962427157566666e-07</v>
+        <v>6.758867972409234e-11</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>Standard Deviation</t>
         </is>
       </c>
       <c r="B19" s="2">
-        <v>442.9929071177852</v>
+        <v>8221.233467314521</v>
       </c>
       <c r="C19" s="2">
-        <v>0.0004429929071177852</v>
+        <v>8.221233467314522e-06</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>Skewness</t>
         </is>
       </c>
       <c r="B20" s="2">
-        <v>0.4639651794892382</v>
+        <v>0.5786993566761636</v>
       </c>
       <c r="C20" s="2">
-        <v>0.4639651794892365</v>
+        <v>0.5786993566761778</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>Kurtosis</t>
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-0.8990137168045287</v>
+        <v>-0.2909755924600841</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.8990137168045309</v>
+        <v>-0.2909755924600725</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Coefficient Variation</t>
         </is>
       </c>
       <c r="B22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.08804567797654154</v>
       </c>
       <c r="C22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.08804567797654159</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
       <c r="B23" s="2">
-        <v>727.63</v>
+        <v>80465.44901</v>
       </c>
       <c r="C23" s="2">
-        <v>0.0007276300000000001</v>
+        <v>8.046544900999999e-05</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
       <c r="B24" s="2">
-        <v>2026.83</v>
+        <v>112482.41951</v>
       </c>
       <c r="C24" s="2">
-        <v>0.00202683</v>
+        <v>0.00011248241951</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Median</t>
         </is>
       </c>
       <c r="B25" s="2">
-        <v>1181.145</v>
+        <v>92555.497445</v>
       </c>
       <c r="C25" s="2">
-        <v>0.001181145</v>
+        <v>9.255549744500001e-05</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>No. of Obs</t>
         </is>
       </c>
       <c r="B26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7">
-        <v>37226</v>
-      </c>
-      <c r="B27" s="8">
-        <v>791.02</v>
-      </c>
-      <c r="C27" s="8">
-        <v>0.00079102</v>
+      <c r="A27" s="10">
+        <v>38718</v>
+      </c>
+      <c r="B27" s="11">
+        <v>102584.6417</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0.0001025846417</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7">
-        <v>37591</v>
-      </c>
-      <c r="B28" s="8">
-        <v>767.73</v>
-      </c>
-      <c r="C28" s="8">
-        <v>0.00076773</v>
+      <c r="A28" s="10">
+        <v>38749</v>
+      </c>
+      <c r="B28" s="11">
+        <v>93467.54944</v>
+      </c>
+      <c r="C28" s="11">
+        <v>9.346754944e-05</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7">
-        <v>37956</v>
-      </c>
-      <c r="B29" s="8">
-        <v>727.63</v>
-      </c>
-      <c r="C29" s="8">
-        <v>0.0007276300000000001</v>
+      <c r="A29" s="10">
+        <v>38777</v>
+      </c>
+      <c r="B29" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C29" s="11">
+        <v>9.860701212e-05</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7">
-        <v>38322</v>
-      </c>
-      <c r="B30" s="8">
-        <v>922.91</v>
-      </c>
-      <c r="C30" s="8">
-        <v>0.00092291</v>
+      <c r="A30" s="10">
+        <v>38808</v>
+      </c>
+      <c r="B30" s="11">
+        <v>97395.64367</v>
+      </c>
+      <c r="C30" s="11">
+        <v>9.739564367e-05</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7">
-        <v>38687</v>
-      </c>
-      <c r="B31" s="8">
-        <v>1126.49</v>
-      </c>
-      <c r="C31" s="8">
-        <v>0.00112649</v>
+      <c r="A31" s="10">
+        <v>38838</v>
+      </c>
+      <c r="B31" s="11">
+        <v>92075.12437000001</v>
+      </c>
+      <c r="C31" s="11">
+        <v>9.207512437e-05</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7">
+      <c r="A32" s="10">
+        <v>38869</v>
+      </c>
+      <c r="B32" s="11">
+        <v>95232.23819</v>
+      </c>
+      <c r="C32" s="11">
+        <v>9.523223819e-05</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="10">
+        <v>38899</v>
+      </c>
+      <c r="B33" s="11">
+        <v>100047.7073</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0.0001000477073</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="10">
+        <v>38930</v>
+      </c>
+      <c r="B34" s="11">
+        <v>95307.24011</v>
+      </c>
+      <c r="C34" s="11">
+        <v>9.530724011e-05</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="10">
+        <v>38961</v>
+      </c>
+      <c r="B35" s="11">
+        <v>89917.83798</v>
+      </c>
+      <c r="C35" s="11">
+        <v>8.991783798000001e-05</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="10">
+        <v>38991</v>
+      </c>
+      <c r="B36" s="11">
+        <v>98395.83232</v>
+      </c>
+      <c r="C36" s="11">
+        <v>9.839583232e-05</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="10">
+        <v>39022</v>
+      </c>
+      <c r="B37" s="11">
+        <v>98170.13428</v>
+      </c>
+      <c r="C37" s="11">
+        <v>9.817013428000001e-05</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="10">
         <v>39052</v>
       </c>
-      <c r="B32" s="8">
-        <v>1235.8</v>
-      </c>
-      <c r="C32" s="8">
-        <v>0.0012358</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7">
+      <c r="B38" s="11">
+        <v>98568.94826</v>
+      </c>
+      <c r="C38" s="11">
+        <v>9.856894826e-05</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="10">
+        <v>39083</v>
+      </c>
+      <c r="B39" s="11">
+        <v>95524.24980000001</v>
+      </c>
+      <c r="C39" s="11">
+        <v>9.55242498e-05</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="10">
+        <v>39114</v>
+      </c>
+      <c r="B40" s="11">
+        <v>83617.02267999999</v>
+      </c>
+      <c r="C40" s="11">
+        <v>8.361702268e-05</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="10">
+        <v>39142</v>
+      </c>
+      <c r="B41" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C41" s="11">
+        <v>9.860701212e-05</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="10">
+        <v>39173</v>
+      </c>
+      <c r="B42" s="11">
+        <v>87313.59292</v>
+      </c>
+      <c r="C42" s="11">
+        <v>8.731359292e-05</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="10">
+        <v>39203</v>
+      </c>
+      <c r="B43" s="11">
+        <v>89092.12278000001</v>
+      </c>
+      <c r="C43" s="11">
+        <v>8.909212278e-05</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="10">
+        <v>39234</v>
+      </c>
+      <c r="B44" s="11">
+        <v>83580.49619999999</v>
+      </c>
+      <c r="C44" s="11">
+        <v>8.35804962e-05</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="10">
+        <v>39264</v>
+      </c>
+      <c r="B45" s="11">
+        <v>89062.82719</v>
+      </c>
+      <c r="C45" s="11">
+        <v>8.906282719e-05</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="10">
+        <v>39295</v>
+      </c>
+      <c r="B46" s="11">
+        <v>93159.99709999999</v>
+      </c>
+      <c r="C46" s="11">
+        <v>9.31599971e-05</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="10">
+        <v>39326</v>
+      </c>
+      <c r="B47" s="11">
+        <v>86589.08224</v>
+      </c>
+      <c r="C47" s="11">
+        <v>8.658908224e-05</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="10">
+        <v>39356</v>
+      </c>
+      <c r="B48" s="11">
+        <v>93035.87052</v>
+      </c>
+      <c r="C48" s="11">
+        <v>9.303587052e-05</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="10">
+        <v>39387</v>
+      </c>
+      <c r="B49" s="11">
+        <v>91356.15084</v>
+      </c>
+      <c r="C49" s="11">
+        <v>9.135615084000001e-05</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="10">
         <v>39417</v>
       </c>
-      <c r="B33" s="8">
-        <v>1482.71</v>
-      </c>
-      <c r="C33" s="8">
-        <v>0.00148271</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7">
+      <c r="B50" s="11">
+        <v>95688.73797</v>
+      </c>
+      <c r="C50" s="11">
+        <v>9.568873797000001e-05</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="10">
+        <v>39448</v>
+      </c>
+      <c r="B51" s="11">
+        <v>96328.9469</v>
+      </c>
+      <c r="C51" s="11">
+        <v>9.63289469e-05</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="10">
+        <v>39479</v>
+      </c>
+      <c r="B52" s="11">
+        <v>98953.75303000001</v>
+      </c>
+      <c r="C52" s="11">
+        <v>9.895375303e-05</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="10">
+        <v>39508</v>
+      </c>
+      <c r="B53" s="11">
+        <v>90097.77222</v>
+      </c>
+      <c r="C53" s="11">
+        <v>9.009777222e-05</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="10">
+        <v>39539</v>
+      </c>
+      <c r="B54" s="11">
+        <v>82155.80794</v>
+      </c>
+      <c r="C54" s="11">
+        <v>8.215580794000001e-05</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="10">
+        <v>39569</v>
+      </c>
+      <c r="B55" s="11">
+        <v>90612.21428</v>
+      </c>
+      <c r="C55" s="11">
+        <v>9.061221428e-05</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="10">
+        <v>39600</v>
+      </c>
+      <c r="B56" s="11">
+        <v>83468.69955999999</v>
+      </c>
+      <c r="C56" s="11">
+        <v>8.346869956e-05</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="10">
+        <v>39630</v>
+      </c>
+      <c r="B57" s="11">
+        <v>85880.46527</v>
+      </c>
+      <c r="C57" s="11">
+        <v>8.588046527e-05</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="10">
+        <v>39661</v>
+      </c>
+      <c r="B58" s="11">
+        <v>88071.95206</v>
+      </c>
+      <c r="C58" s="11">
+        <v>8.807195206e-05</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="10">
+        <v>39692</v>
+      </c>
+      <c r="B59" s="11">
+        <v>86411.6581</v>
+      </c>
+      <c r="C59" s="11">
+        <v>8.64116581e-05</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="10">
+        <v>39722</v>
+      </c>
+      <c r="B60" s="11">
+        <v>85863.46357000001</v>
+      </c>
+      <c r="C60" s="11">
+        <v>8.586346357e-05</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="10">
+        <v>39753</v>
+      </c>
+      <c r="B61" s="11">
+        <v>87911.15601999999</v>
+      </c>
+      <c r="C61" s="11">
+        <v>8.791115602e-05</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="10">
         <v>39783</v>
       </c>
-      <c r="B34" s="8">
-        <v>1598.61</v>
-      </c>
-      <c r="C34" s="8">
-        <v>0.00159861</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7">
+      <c r="B62" s="11">
+        <v>91789.90822</v>
+      </c>
+      <c r="C62" s="11">
+        <v>9.178990822e-05</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="10">
+        <v>39814</v>
+      </c>
+      <c r="B63" s="11">
+        <v>92030.37178</v>
+      </c>
+      <c r="C63" s="11">
+        <v>9.203037178e-05</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="10">
+        <v>39845</v>
+      </c>
+      <c r="B64" s="11">
+        <v>80465.44901</v>
+      </c>
+      <c r="C64" s="11">
+        <v>8.046544900999999e-05</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="10">
+        <v>39873</v>
+      </c>
+      <c r="B65" s="11">
+        <v>81558.51788</v>
+      </c>
+      <c r="C65" s="11">
+        <v>8.155851788e-05</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="10">
+        <v>39904</v>
+      </c>
+      <c r="B66" s="11">
+        <v>81657.46119</v>
+      </c>
+      <c r="C66" s="11">
+        <v>8.165746119e-05</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="10">
+        <v>39934</v>
+      </c>
+      <c r="B67" s="11">
+        <v>83308.78529</v>
+      </c>
+      <c r="C67" s="11">
+        <v>8.330878529e-05</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="10">
+        <v>39965</v>
+      </c>
+      <c r="B68" s="11">
+        <v>84839.49019</v>
+      </c>
+      <c r="C68" s="11">
+        <v>8.483949019000001e-05</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="10">
+        <v>39995</v>
+      </c>
+      <c r="B69" s="11">
+        <v>90413.66712</v>
+      </c>
+      <c r="C69" s="11">
+        <v>9.041366712000001e-05</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="10">
+        <v>40026</v>
+      </c>
+      <c r="B70" s="11">
+        <v>85945.56743</v>
+      </c>
+      <c r="C70" s="11">
+        <v>8.594556743e-05</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="10">
+        <v>40057</v>
+      </c>
+      <c r="B71" s="11">
+        <v>84672.43913</v>
+      </c>
+      <c r="C71" s="11">
+        <v>8.467243913e-05</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="10">
+        <v>40087</v>
+      </c>
+      <c r="B72" s="11">
+        <v>85370.54401</v>
+      </c>
+      <c r="C72" s="11">
+        <v>8.537054401e-05</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="10">
+        <v>40118</v>
+      </c>
+      <c r="B73" s="11">
+        <v>86578.4388</v>
+      </c>
+      <c r="C73" s="11">
+        <v>8.657843879999999e-05</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="10">
         <v>40148</v>
       </c>
-      <c r="B35" s="8">
-        <v>1639.54</v>
-      </c>
-      <c r="C35" s="8">
-        <v>0.00163954</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7">
+      <c r="B74" s="11">
+        <v>97156.65667</v>
+      </c>
+      <c r="C74" s="11">
+        <v>9.715665667e-05</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="10">
+        <v>40179</v>
+      </c>
+      <c r="B75" s="11">
+        <v>97289.10838000001</v>
+      </c>
+      <c r="C75" s="11">
+        <v>9.728910838e-05</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="10">
+        <v>40210</v>
+      </c>
+      <c r="B76" s="11">
+        <v>94671.4368</v>
+      </c>
+      <c r="C76" s="11">
+        <v>9.467143679999999e-05</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="10">
+        <v>40238</v>
+      </c>
+      <c r="B77" s="11">
+        <v>110403.24314</v>
+      </c>
+      <c r="C77" s="11">
+        <v>0.00011040324314</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="10">
+        <v>40269</v>
+      </c>
+      <c r="B78" s="11">
+        <v>99640.66865000001</v>
+      </c>
+      <c r="C78" s="11">
+        <v>9.964066864999999e-05</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="10">
+        <v>40299</v>
+      </c>
+      <c r="B79" s="11">
+        <v>110055.8161</v>
+      </c>
+      <c r="C79" s="11">
+        <v>0.0001100558161</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="10">
+        <v>40330</v>
+      </c>
+      <c r="B80" s="11">
+        <v>94930.02968000001</v>
+      </c>
+      <c r="C80" s="11">
+        <v>9.493002967999999e-05</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="10">
+        <v>40360</v>
+      </c>
+      <c r="B81" s="11">
+        <v>111079.15933</v>
+      </c>
+      <c r="C81" s="11">
+        <v>0.00011107915933</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="10">
+        <v>40391</v>
+      </c>
+      <c r="B82" s="11">
+        <v>112482.41951</v>
+      </c>
+      <c r="C82" s="11">
+        <v>0.00011248241951</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="10">
+        <v>40422</v>
+      </c>
+      <c r="B83" s="11">
+        <v>105503.17811</v>
+      </c>
+      <c r="C83" s="11">
+        <v>0.00010550317811</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="10">
+        <v>40452</v>
+      </c>
+      <c r="B84" s="11">
+        <v>107765.02529</v>
+      </c>
+      <c r="C84" s="11">
+        <v>0.00010776502529</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="10">
+        <v>40483</v>
+      </c>
+      <c r="B85" s="11">
+        <v>101364.03607</v>
+      </c>
+      <c r="C85" s="11">
+        <v>0.00010136403607</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="10">
         <v>40513</v>
       </c>
-      <c r="B36" s="8">
-        <v>2026.83</v>
-      </c>
-      <c r="C36" s="8">
-        <v>0.00202683</v>
+      <c r="B86" s="11">
+        <v>109354.00938</v>
+      </c>
+      <c r="C86" s="11">
+        <v>0.00010935400938</v>
       </c>
     </row>
   </sheetData>
@@ -887,23 +1461,23 @@
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>2</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>0</Order>
         </MetadataSeries>
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>3</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>3</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>1</Order>
         </MetadataSeries>
       </MetaDataSeries>
@@ -913,7 +1487,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F851085-E2CF-4D6A-AE62-05DF1D17B0BA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7263D1F0-96D3-4609-84E8-C78641FB16F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
   </ds:schemaRefs>
